--- a/biology/Histoire de la zoologie et de la botanique/Boris_Rohdendorf/Boris_Rohdendorf.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Boris_Rohdendorf/Boris_Rohdendorf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boris Borissovitch Rohdendorf est un entomologiste russe, né en 1904 et mort en 1977.
 Il a été le conservateur du musée de zoologie de l’université de Moscou et a dirigé également le laboratoire des arthropodes de l’institut de paléontologie de l’Académie des sciences de l’URSS à Moscou. Il a été l’élève d'Andreï Martynov (1879-1938) et a été un exceptionnel et prolifique taxonomiste, décrivant de nombreux taxons dont des diptères fossiles. Il a été l’auteur d’importantes synthèses sur les insectes fossiles. Son travail est poursuivi et révisé par les paléoentomologistes russes actuels.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rohdendorf, B.B. 1937. Faune de l'URSS, Insectes Diptères, Vol. 19, nº 1: Fam. Sarcophagidae (Part 1), Moscou &amp; Leningrad, 501pp. (en russe et avec résumés en allemand)
 Rohdendorf, B.B. 1962. Order Diptera. In B.B. Rohdendorf (editor), Fundamentals of Paleontology, vol. 9, Arthropoda-Tracheata and Chelicerata: 444–502. [1991 traduction du russe en anglais par la Smithsonian Institution Libraries and National Science Foundation]
